--- a/data/trans_dic/P04B1_1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_1_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6213138124408762</v>
+        <v>0.621313812440876</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.5704860635869883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5914696935224768</v>
+        <v>0.5914696935224767</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5794790821835762</v>
+        <v>0.5782029667845215</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5424978192577712</v>
+        <v>0.5418894004331137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5681197032263209</v>
+        <v>0.5701997050130329</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6607159402634289</v>
+        <v>0.6571791475110832</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.597370470585962</v>
+        <v>0.5997475216429734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6152938509770242</v>
+        <v>0.6143282235621288</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.6591859188726776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6669088645490321</v>
+        <v>0.6669088645490322</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6496442796823245</v>
+        <v>0.6512216748316839</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6394542144207429</v>
+        <v>0.6388952995308376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6518086434248264</v>
+        <v>0.6513363384022789</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6944539294675258</v>
+        <v>0.6984234053901988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6778796716351165</v>
+        <v>0.6789922929566871</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6805927894194463</v>
+        <v>0.6815133151475438</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.7326927394419568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7284533148243711</v>
+        <v>0.7284533148243713</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6863127144989548</v>
+        <v>0.6828866927592425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7029465376549707</v>
+        <v>0.7030524271199993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7046715805128168</v>
+        <v>0.7009713473081491</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7587072222907951</v>
+        <v>0.7560381767627335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7622020598044269</v>
+        <v>0.7621610022625894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7500403748666259</v>
+        <v>0.7497558569751084</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6756938666899467</v>
+        <v>0.6756938666899465</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6540227145910594</v>
+        <v>0.6540227145910593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6645503287474389</v>
+        <v>0.6645503287474391</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6576946314161752</v>
+        <v>0.658461059255373</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6408893796852346</v>
+        <v>0.6404824126164714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6541981669561211</v>
+        <v>0.6538051930046376</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6919322345992155</v>
+        <v>0.6927519410218022</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.669817184853835</v>
+        <v>0.6695455418211611</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6761122769307458</v>
+        <v>0.6762833598996522</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>334664</v>
+        <v>333927</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>445603</v>
+        <v>445103</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>794752</v>
+        <v>797662</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>381581</v>
+        <v>379538</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>490675</v>
+        <v>492627</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>860745</v>
+        <v>859394</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1447720</v>
+        <v>1451235</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1386278</v>
+        <v>1385066</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2865604</v>
+        <v>2863527</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1547577</v>
+        <v>1556423</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1469581</v>
+        <v>1471993</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2992150</v>
+        <v>2996197</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>485666</v>
+        <v>483241</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>513095</v>
+        <v>513173</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1013012</v>
+        <v>1007693</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>536895</v>
+        <v>535007</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>556347</v>
+        <v>556317</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1078233</v>
+        <v>1077824</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2310910</v>
+        <v>2313603</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2383609</v>
+        <v>2382095</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4731731</v>
+        <v>4728889</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2431209</v>
+        <v>2434089</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2491197</v>
+        <v>2490187</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4890233</v>
+        <v>4891470</v>
       </c>
     </row>
     <row r="20">
